--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T18:15:49+00:00</t>
+    <t>2022-08-08T14:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:54:31+00:00</t>
+    <t>2022-08-08T14:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:55:01+00:00</t>
+    <t>2022-08-08T14:55:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:55:43+00:00</t>
+    <t>2022-08-08T14:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:58:25+00:00</t>
+    <t>2022-09-20T21:17:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T21:17:20+00:00</t>
+    <t>2022-09-20T21:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T21:19:27+00:00</t>
+    <t>2022-09-20T21:37:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T21:37:06+00:00</t>
+    <t>2022-10-08T01:52:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T01:52:10+00:00</t>
+    <t>2022-10-08T02:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:01:28+00:00</t>
+    <t>2022-10-08T02:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:02:22+00:00</t>
+    <t>2022-10-08T02:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:02:45+00:00</t>
+    <t>2022-10-08T02:04:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:04:28+00:00</t>
+    <t>2022-10-08T02:06:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:06:31+00:00</t>
+    <t>2022-10-08T02:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:08:40+00:00</t>
+    <t>2022-10-08T02:09:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:09:14+00:00</t>
+    <t>2022-10-08T02:10:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:10:18+00:00</t>
+    <t>2022-10-08T02:12:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:12:18+00:00</t>
+    <t>2022-10-08T02:13:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:13:28+00:00</t>
+    <t>2022-10-08T02:14:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:14:23+00:00</t>
+    <t>2022-11-29T17:06:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T17:06:49+00:00</t>
+    <t>2023-03-09T17:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T17:04:20+00:00</t>
+    <t>2023-03-15T20:21:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:21:30+00:00</t>
+    <t>2023-03-15T20:24:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:24:20+00:00</t>
+    <t>2023-03-15T20:24:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:24:19+00:00</t>
+    <t>2023-03-16T09:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T09:46:21+00:00</t>
+    <t>2023-03-16T13:05:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T13:05:08+00:00</t>
+    <t>2023-03-20T20:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T20:26:34+00:00</t>
+    <t>2023-05-01T15:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/ValueSet/OpenMRS-order-code-vs</t>
+    <t>http://fhir.openmrs.org/core/ValueSet/OpenMRS-order-code-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T15:55:39+00:00</t>
+    <t>2023-05-08T19:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -295,56 +298,58 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -366,28 +371,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T19:25:22+00:00</t>
+    <t>2023-05-09T05:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-09T05:52:21+00:00</t>
+    <t>2023-05-17T15:10:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-17T15:10:06+00:00</t>
+    <t>2023-06-22T11:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -224,10 +224,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T11:16:34+00:00</t>
+    <t>2023-06-23T17:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-order-code-vs.xlsx
+++ b/ValueSet-OpenMRS-order-code-vs.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-23T17:20:12+00:00</t>
+    <t>2024-12-11T17:17:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>OpenMRS, Inc. (https://openmrs.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -94,9 +100,6 @@
   </si>
   <si>
     <t>All codes</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -236,7 +239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -336,20 +339,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -371,28 +382,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
